--- a/inputfiles/mockMaterials/mockTFsdfwithPrimers.xlsx
+++ b/inputfiles/mockMaterials/mockTFsdfwithPrimers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Gene_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Transcript_ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Transcript_Symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Gene_Region</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>VAL-F</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>HAL-F</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>HAL-R</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>HAR-F</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>HAR-R</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>VAL-R</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stringency Level</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Extended Region Used</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>No. of BLAST Excluded</t>
         </is>
@@ -496,55 +506,65 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>FBgn0031086</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FBtr0070032</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>fd19B-RA</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>GGTTACGCCATTCCTTACACC</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>TCTTGGTTTTTGAATTTTGGCATG</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>CGTAATAATATTGCAATATGTGTCACTGT</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>GATACGACACCAATCTTCCAGTC</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>TCGCACTATTCTTCGAATGTCG</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>GCGGTTGGTTAGGGTTTCAC</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>[0, 0, 2, 0, 0, 0]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -556,55 +576,65 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>FBgn0031086</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FBtr0070032</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>fd19B-RA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>TATGGTGACGTTGACATCCG</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>CCAGCGCTAATCCGAAAACG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>CTCTTGGTGAAGATGGTAGCG</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>ATTTCAGCAGTCTTAGAGGCG</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>GCGCACTCACTCTGTTGTTG</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>GCTTGGCATCGGTAGTTTTCC</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -616,55 +646,65 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>FBgn0000022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FBtr0070072</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>ac-RA</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>AGAGCACTTGTGGCGCTAAG</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>GTTTCCTAGCGTGCAACCAG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>TTTAAGAGATAGTATAACGTTATTGTGTGA</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>GCTTTGGGCAGCGAAAATCAC</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>GGCTTACCCCGAATAAAGCG</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>ACCTTGACCGGTTCATATGC</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>[0, 0, 2, 0, 0, 0]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -676,55 +716,65 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>FBgn0000022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FBtr0070072</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>ac-RA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>CCAGGGATCGGAAGGTCATC</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>CAGGGCCAGGTTTTCGTTTG</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CAGGTCGTCCTGCCAGAGT</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>AAAAACAGATCAAATCTTCAGCTATTGC</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>GCCGAAAAGACCCATGAACC</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>GGGTAACTGATAGCCGAGACAC</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>[0, 0, 2, 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -736,55 +786,65 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>FBgn0004170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FBtr0070073</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>sc-RA</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>TCGCTTTGGTTTTGGTTTCGG</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>TTACAGTCGCCGTTTAGCAC</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>TAACACACTCGGAGCTTTCTTTAAC</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>AAAAATAATAATAATACAACGAAAAGCACT</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>GGGAGTGCGTGTGTAATTCG</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>TGTTTTCGTTTCCATGCTATAGTT</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[0, 0, 0, 'makeMount', 0, 2]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -796,55 +856,65 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>FBgn0004170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FBtr0070073</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>sc-RA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>CGAGTTCCCTACCTGTGCAG</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>GTGCTGTCCACCAACGAAAC</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>CTGCTCCTGCCATAGAGAGATG</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>CTTAATCCCCAAAATTTACCACCAC</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ACGGACTGACATCTCAACGG</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>AGTTCTTCCGGAGCTGAACG</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -856,55 +926,65 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>FBgn0002561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FBtr0070074</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>l(1)sc-RA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>GCAACACAAATGCTTCATGC</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>GGGTAAGAGTGTTTCGACTGC</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>GGTAATCCTTGCGAGAGTTTTC</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>ACGAGCATTTGCAGCAGC</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>TCGTTGTAATTACCCTACATGACG</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>CTGAGGCCAAAACAGCTAAGC</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>[0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -916,55 +996,65 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>FBgn0002561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FBtr0070074</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>l(1)sc-RA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>TCGCTTTCAATGCAAACGAC</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>GTAGCTCCTCTGCCGAAGTC</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>CTGCTCTTGCCAAGATGAAATAT</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>AGGGGTCTTACTAAAAGTCCCAAAC</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>AATGGGTGTGGCATCTCCTG</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>CGGCAACAATGGACCACAAG</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[0, 0, 2, 0, 0, 0]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -976,55 +1066,65 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>FBgn0000137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FBtr0070075</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>ase-RA</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>CTGCGCTCAAGTCCTTTTCC</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>TTCCCACCGGACTAATTGCC</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>AATTAAGTTTTTTGATTCGTGGCTTT</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>GCCGCCTTAAGCTTCAGC</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>AGTCAGTCGTCAGCAGTTGG</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>TTCTGAACTTGCTGCTGCTG</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>[0, 0, 2, 0, 0, 0]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1036,55 +1136,65 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>FBgn0000137</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FBtr0070075</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>ase-RA</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>GCAGCCAGCACAACTAACAC</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>GTTGAAAGGCCCCCAAAAGC</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>AACGGACAGATTGGTGCATG</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>CCGAATTTTTTCACATCACGC</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ACCGCTTTCTCTCAATTTCCC</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>GTGTGGTGAGCATGACAAGG</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1096,55 +1206,65 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>FBgn0025635</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FBtr0070116</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Hinfp-RA</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>CGAAGATGCGGTTGGAAAGC</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>AGCTTCCCACACGCTTAGAG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>GGTTTTCCTGACAGGATTTACACTC</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>CTAAGGCCCCAGTCATCAGTG</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>TGAGCGGTTTGTCCTTGAGG</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>AGTGGCAGGCGTACAGAATG</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1156,55 +1276,65 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>FBgn0025635</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FBtr0070116</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Hinfp-RA</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>GGCCAGAACTTTCGATGTGG</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>CCAGCCGGAAAACAACAGTG</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>CAGCTCCTCTGCTAGGCTG</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>GGAATAGAGCCGCCCGGCAGCCAACCCTTT</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>AATGGCCGCAAAACTGAGTG</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>ACATCCGTGCCAAGAGGAAG</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[0, 0, 1, 'extendMount', 0, 0]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1216,55 +1346,65 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>FBgn0025635</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FBtr0070117</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Hinfp-RC</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>CGAAGATGCGGTTGGAAAGC</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>AGCTTCCCACACGCTTAGAG</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>GGTTTTCCTGACAGGATTTACACTC</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>CTAAGGCCCCAGTCATCAGTG</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>TGAGCGGTTTGTCCTTGAGG</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>AGTGGCAGGCGTACAGAATG</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1276,55 +1416,65 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>FBgn0025635</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FBtr0070117</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Hinfp-RC</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>GGCCAGAACTTTCGATGTGG</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>CCAGCCGGAAAACAACAGTG</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>CAGCTCCTCTGCTAGGCTG</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>GGAATAGAGCCGCCCGGCAGCCAACCCTTT</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>AATGGCCGCAAAACTGAGTG</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>ACATCCGTGCCAAGAGGAAG</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>[0, 0, 1, 'extendMount', 0, 0]</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1336,55 +1486,65 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>FBgn0025635</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FBtr0070118</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Hinfp-RB</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>CGAAGATGCGGTTGGAAAGC</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>AGCTTCCCACACGCTTAGAG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>GGTTTTCCTGACAGGATTTACACTC</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>CTAAGGCCCCAGTCATCAGTG</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>TGAGCGGTTTGTCCTTGAGG</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>AGTGGCAGGCGTACAGAATG</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1396,55 +1556,65 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>FBgn0025635</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FBtr0070118</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Hinfp-RB</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>GGCCAGAACTTTCGATGTGG</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>CCAGCCGGAAAACAACAGTG</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>CAGCTCCTCTGCTAGGCTG</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>GGAATAGAGCCGCCCGGCAGCCAACCCTTT</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>AATGGCCGCAAAACTGAGTG</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>ACATCCGTGCCAAGAGGAAG</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>[0, 0, 1, 'extendMount', 0, 0]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1456,55 +1626,65 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>FBgn0015799</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FBtr0070146</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Rbf-RA</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>CCTTTATGCGGCGACACATG</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>TGTGCAATGCTCTTGAACGC</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>GTCTGCGAATGATGTCTCTGTC</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>AGCGAGCCTGACCCGCAGGAACTGG</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>CCTCCTCGGTCATGTCACAG</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>GAGGACGTACTGCTCGTAGC</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>[0, 0, 0, 'extendMount', 0, 0]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1516,55 +1696,65 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>FBgn0015799</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FBtr0070146</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Rbf-RA</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>AGGCCTACAAAACGGAGCTC</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>ACTCGACCGTCTGGGAAATG</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>TGTCTCGTGTTCTCCTCCTTC</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>ACACGGGGCTTATGGGG</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>CCGCGTGCCTCTTAATTTCG</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>GCTCTTCACCTGCAGTCCTC</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>[0, 0, 0, 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1576,55 +1766,65 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>FBgn0028550</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FBtr0070244</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Atf3-RA</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>TCCTTCAGCCCTTCAATCCAC</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>TGGCACCCGATCTGTATTGG</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>GGTCGACGTTGACGGTTAC</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>TTCAATTCCAACATACCGGCCTC</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>CTGAGTCTCAGTGCGAGTGG</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>AATCAACCCACGCACTCTCC</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>[0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1636,55 +1836,65 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>FBgn0028550</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FBtr0070244</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Atf3-RA</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>CAGCGAAACCAAGTCACAGC</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>AGTACGTCAGCTGGAAACCG</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>CGCCAGGCAACTGCCGTTGTTCATGAAGGC</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>GGAAGGGCGCCGGACAG</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>ATGCGGATGTGACTGCTAGC</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>TGGGTTTATCACTGACTAAGCC</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>[0, 0, 'extendMount', 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1696,55 +1906,65 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>FBgn0028550</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FBtr0330391</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Atf3-RB</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>TCCTTCAGCCCTTCAATCCAC</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>TGGCACCCGATCTGTATTGG</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>GGTCGACGTTGACGGTTAC</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>TTCAATTCCAACATACCGGCCTC</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>CTGAGTCTCAGTGCGAGTGG</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>AATCAACCCACGCACTCTCC</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>[0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1756,55 +1976,65 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>FBgn0028550</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FBtr0330391</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Atf3-RB</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>GGTGGACATGCTGAAATCGC</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>CGTGATTGACCAGCAGCATG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>GCACCAGTAGTCTACATGAGTCC</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>GGCTAGGGCATCATCATCATC</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>CGCATGGGCTTCCTATTTCTG</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>TTGCAAAAGATTTAACAAAGTGAAGA</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 2]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1816,55 +2046,65 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>FBgn0028550</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FBtr0345507</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Atf3-RC</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>TCCTTCAGCCCTTCAATCCAC</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>TGGCACCCGATCTGTATTGG</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>GGTCGACGTTGACGGTTAC</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>TTCAATTCCAACATACCGGCCTC</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>CTGAGTCTCAGTGCGAGTGG</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>AATCAACCCACGCACTCTCC</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>[0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1876,55 +2116,65 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>FBgn0028550</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FBtr0345507</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Atf3-RC</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>CAGCGAAACCAAGTCACAGC</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>AGTACGTCAGCTGGAAACCG</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>CGCCAGGCAACTGCCGTTGTTCATGAAGGC</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>GGAAGGGCGCCGGACAG</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>ATGCGGATGTGACTGCTAGC</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>TGGGTTTATCACTGACTAAGCC</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>[0, 0, 'extendMount', 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1936,55 +2186,65 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>FBgn0040366</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FBtr0070250</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>CG11398-RA</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>CCGAAAAGCAAAACTGTTTCACTG</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>TGAAGGAGGGGAAAACTAGCG</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>TTGAGAATAATCAAATTAAAACACATTAGT</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>ACTGAAGTACAATATAAAGAGGCCGA</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>AGGGCGTCAACTCCTTTCAG</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>TCATTCGAACTAAGCTGTTCCTAC</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>[0, 0, 'makeMount', 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1996,55 +2256,65 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>FBgn0040366</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FBtr0070250</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>CG11398-RA</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>GCTTGCACACTAGCGTTAGC</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>ATGAGAGAAGCCAGCACCAG</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>ATTGAATAACTCGCTTTCGTTTTCG</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>ATATGCATTGAGTAAGAAGTACCAGC</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>AAGGCCTTTGTGGAGGGTTC</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>TGCGGAAGTGGTCAGAGTTC</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>[0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2056,55 +2326,65 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>FBgn0040366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FBtr0345522</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>CG11398-RD</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>CCGAAAAGCAAAACTGTTTCACTG</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>TGAAGGAGGGGAAAACTAGCG</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>TTGAGAATAATCAAATTAAAACACATTAGT</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>ACTGAAGTACAATATAAAGAGGCCGA</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>AGGGCGTCAACTCCTTTCAG</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>TCATTCGAACTAAGCTGTTCCTAC</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>[0, 0, 'makeMount', 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2116,55 +2396,65 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>FBgn0040366</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FBtr0345522</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>CG11398-RD</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>GCTTGCACACTAGCGTTAGC</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>ATGAGAGAAGCCAGCACCAG</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>ATTGAATAACTCGCTTTCGTTTTCG</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>ATATGCATTGAGTAAGAAGTACCAGC</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>AAGGCCTTTGTGGAGGGTTC</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>TGCGGAAGTGGTCAGAGTTC</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>[0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2176,55 +2466,65 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>FBgn0003964</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FBtr0070346</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>usp-RA</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>GTTGTCGTGTCAGTGACGTG</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>TTGTGCACTGTGTGGTTTGC</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>CCTGGGCTTGTGATGTGGTG</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>GACAACTGCGACCAGGAC</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>GTCATCCAGCGAAACGATGC</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>TGATGGCCTTCAAGCAGGAC</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2236,55 +2536,65 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>FBgn0003964</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FBtr0070346</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>usp-RA</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>AGCAGCAGTATCCGCCTAAC</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>TAGACAAGCGGCAGAGGAAC</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>CTCCAGTTTCATCGCCAGGC</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>GGTCCCGACTCTAAAGTCTCC</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>GTACAGTGCGGTTCGAAAGC</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>TTCTTAGTCGCTGCTTGTGC</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>[0, 0, 1, 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2296,55 +2606,65 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>FBgn0003964</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FBtr0333803</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>usp-RB</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>GTTGTCGTGTCAGTGACGTG</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>TTGTGCACTGTGTGGTTTGC</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>CCTGGGCTTGTGATGTGGTG</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>GACAACTGCGACCAGGAC</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>GTCATCCAGCGAAACGATGC</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>TGATGGCCTTCAAGCAGGAC</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2356,55 +2676,65 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>FBgn0003964</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>FBtr0333803</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>usp-RB</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>AGCAGCAGTATCCGCCTAAC</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>TAGACAAGCGGCAGAGGAAC</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>CTCCAGTTTCATCGCCAGGC</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>GGTCCCGACTCTAAAGTCTCC</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>GTACAGTGCGGTTCGAAAGC</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>TTCTTAGTCGCTGCTTGTGC</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>[0, 0, 1, 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2416,55 +2746,65 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>FBgn0023518</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FBtr0070362</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>trr-RC</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>CTCAACGAACTCGCACTTGC</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>CTTGCGTCCGATGGTCAAAC</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>AACAAACACACAAGTGGAAACG</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>AATATACCGAAGGTGACAACATCG</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>TCTGCGTTACTTCCGACAGC</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>TGTAGCCCCGAAAACGAGAC</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>[0, 0, 2, 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2476,55 +2816,65 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>FBgn0023518</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>FBtr0070362</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>trr-RC</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>ACCCCATTGGCTACAAGGTG</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>AGCTCTTTCCCCAGCACATC</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>GTTCATCCACTTGCGACAGTTG</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>AGTCGGGAGGAGCCTCTAG</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>CGGACCAGATGAGCCACTTC</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>TGCGTCTTAAGCGGATCGAG</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2536,55 +2886,65 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>FBgn0023518</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>FBtr0070363</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>trr-RD</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>start_codon</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>CTCAACGAACTCGCACTTGC</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>CTTGCGTCCGATGGTCAAAC</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>AACAAACACACAAGTGGAAACG</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>AATATACCGAAGGTGACAACATCG</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>TCTGCGTTACTTCCGACAGC</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>TGTAGCCCCGAAAACGAGAC</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>[0, 0, 2, 2, 0, 0]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2596,55 +2956,65 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>FBgn0023518</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>FBtr0070363</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>trr-RD</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>stop_codon</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>ACCCCATTGGCTACAAGGTG</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>AGCTCTTTCCCCAGCACATC</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>GTTCATCCACTTGCGACAGTTG</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>AGTCGGGAGGAGCCTCTAG</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>CGGACCAGATGAGCCACTTC</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>TGCGTCTTAAGCGGATCGAG</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="L37" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>[0, 0, 0, 0, 0, 0]</t>
         </is>
